--- a/紀錄.xlsx
+++ b/紀錄.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\c#_Leo老師\DailyAccounting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD487C2E-85FA-41DF-B7E8-7B84D629ABEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC9D317F-CD3A-442A-98DC-6F6C00E7E00F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3090" yWindow="3735" windowWidth="22170" windowHeight="11295" xr2:uid="{26A369C8-7E2A-4242-8C87-BEB906ADD01B}"/>
+    <workbookView xWindow="5745" yWindow="8505" windowWidth="21600" windowHeight="8715" xr2:uid="{26A369C8-7E2A-4242-8C87-BEB906ADD01B}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -38,54 +38,59 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
+    <t xml:space="preserve"> [("金額")]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [("圖片1")]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [("圖片2")]</t>
+  </si>
+  <si>
+    <t>ImageURL1_Image</t>
+  </si>
+  <si>
+    <t>ImageURL2_Image</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Member_Combo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PayWay_Combo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Category_Combo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Purpose_Combo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刪除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> [("類別")]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> [("目的")]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> [("付款方式")]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> [("對象")]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve"> [("日期")]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [("金額")]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [("類別")]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [("目的")]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [("付款方式")]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [("對象")]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [("圖片1")]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [("圖片2")]</t>
-  </si>
-  <si>
-    <t>ImageURL1_Image</t>
-  </si>
-  <si>
-    <t>ImageURL2_Image</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Member_Combo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PayWay_Combo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Category_Combo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Purpose_Combo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刪除</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -484,8 +489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DA624C9-935D-4EA6-BCC4-431D6B89F9C3}">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -554,49 +559,49 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="M2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="N2" t="s">
-        <v>7</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
